--- a/biology/Zoologie/Coggeria_naufragus/Coggeria_naufragus.xlsx
+++ b/biology/Zoologie/Coggeria_naufragus/Coggeria_naufragus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coggeria
-Coggeria naufragus, unique représentant du genre Coggeria, est une espèce de sauriens de la famille des Scincidae[1].
+Coggeria naufragus, unique représentant du genre Coggeria, est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Coggeria et l'espèce Coggeria naufragus ont été décrits en 1996 par les herpétologistes Patrick J. Couper (d), Jeanette Adelaide Covacevich (d), S. P. Marsterson (d) et Glenn Michael Shea (d).
 </t>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île Fraser au Queensland en Australie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île Fraser au Queensland en Australie.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est nommé en l'honneur de l'herpétologiste Harold George Cogger (d) (1935-).
 Le nom spécifique, du latin naufragus, « naufragé », fait référence à la distribution de ce saurien.
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Couper, Covacevich, Marsterson &amp; Shea, 1996 : Coggeria naufragus gen. et sp. nov., a sand-swimming skink from Fraser Island, Queensland. Memoirs of the Queensland Museum, vol. 39, no 2, p. 233-241 (texte intégral).</t>
         </is>
